--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1752,28 +1752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.1444340091975</v>
+        <v>208.8024603360713</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.6943885032858</v>
+        <v>285.6927379461005</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.8681170391882</v>
+        <v>258.4266240088847</v>
       </c>
       <c r="AD2" t="n">
-        <v>167144.4340091975</v>
+        <v>208802.4603360713</v>
       </c>
       <c r="AE2" t="n">
-        <v>228694.3885032858</v>
+        <v>285692.7379461005</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.205725860864752e-06</v>
+        <v>3.728889007529709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.184027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>206868.1170391882</v>
+        <v>258426.6240088847</v>
       </c>
     </row>
     <row r="3">
@@ -1858,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.9431746721481</v>
+        <v>165.4305192898786</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.5845195733145</v>
+        <v>226.349334771734</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.3996110386526</v>
+        <v>204.7468719444715</v>
       </c>
       <c r="AD3" t="n">
-        <v>123943.1746721481</v>
+        <v>165430.5192898786</v>
       </c>
       <c r="AE3" t="n">
-        <v>169584.5195733145</v>
+        <v>226349.334771734</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.733734122400674e-06</v>
+        <v>4.621513171420263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.413194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>153399.6110386526</v>
+        <v>204746.8719444714</v>
       </c>
     </row>
     <row r="4">
@@ -1964,28 +1964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.959506496768</v>
+        <v>163.4468511144985</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.8703772624973</v>
+        <v>223.6351924609168</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.9445026606562</v>
+        <v>202.2917635664751</v>
       </c>
       <c r="AD4" t="n">
-        <v>121959.506496768</v>
+        <v>163446.8511144985</v>
       </c>
       <c r="AE4" t="n">
-        <v>166870.3772624973</v>
+        <v>223635.1924609168</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.783824999428926e-06</v>
+        <v>4.706194284355551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>150944.5026606562</v>
+        <v>202291.7635664751</v>
       </c>
     </row>
   </sheetData>
@@ -2261,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.5438679283978</v>
+        <v>177.8208879578172</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.1935881067452</v>
+        <v>243.3023838076858</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.2326561892502</v>
+        <v>220.0819457741912</v>
       </c>
       <c r="AD2" t="n">
-        <v>137543.8679283978</v>
+        <v>177820.8879578172</v>
       </c>
       <c r="AE2" t="n">
-        <v>188193.5881067452</v>
+        <v>243302.3838076858</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.564161291678703e-06</v>
+        <v>4.440591466665414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>170232.6561892502</v>
+        <v>220081.9457741911</v>
       </c>
     </row>
     <row r="3">
@@ -2367,28 +2367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.4601142021174</v>
+        <v>145.7319072422485</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.9776219920095</v>
+        <v>199.3968247267503</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.9004594721205</v>
+        <v>180.3666716300869</v>
       </c>
       <c r="AD3" t="n">
-        <v>115460.1142021174</v>
+        <v>145731.9072422485</v>
       </c>
       <c r="AE3" t="n">
-        <v>157977.6219920095</v>
+        <v>199396.8247267503</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.917906987428788e-06</v>
+        <v>5.053205081501262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>142900.4594721205</v>
+        <v>180366.6716300869</v>
       </c>
     </row>
   </sheetData>
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.1819390745478</v>
+        <v>137.4728093248166</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.4415928738486</v>
+        <v>188.0963625904412</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.2289215540016</v>
+        <v>170.1447097397654</v>
       </c>
       <c r="AD2" t="n">
-        <v>101181.9390745478</v>
+        <v>137472.8093248166</v>
       </c>
       <c r="AE2" t="n">
-        <v>138441.5928738486</v>
+        <v>188096.3625904412</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.133310327076462e-06</v>
+        <v>5.928897394999198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.465277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>125228.9215540016</v>
+        <v>170144.7097397654</v>
       </c>
     </row>
   </sheetData>
@@ -2961,28 +2961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.004207663847</v>
+        <v>134.4941895093151</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.0396335012</v>
+        <v>184.020883551442</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.1972544442889</v>
+        <v>166.4581887002763</v>
       </c>
       <c r="AD2" t="n">
-        <v>106004.207663847</v>
+        <v>134494.1895093151</v>
       </c>
       <c r="AE2" t="n">
-        <v>145039.6335012</v>
+        <v>184020.883551442</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.092962827361488e-06</v>
+        <v>5.634706557930823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>131197.2544442888</v>
+        <v>166458.1887002763</v>
       </c>
     </row>
   </sheetData>
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.6967207414459</v>
+        <v>132.9073206097147</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6729633935197</v>
+        <v>181.8496595152949</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.9154033784603</v>
+        <v>164.4941832388063</v>
       </c>
       <c r="AD2" t="n">
-        <v>97696.7207414459</v>
+        <v>132907.3206097147</v>
       </c>
       <c r="AE2" t="n">
-        <v>133672.9633935197</v>
+        <v>181849.6595152949</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.099149597690286e-06</v>
+        <v>6.073334664023206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120915.4033784603</v>
+        <v>164494.1832388063</v>
       </c>
     </row>
   </sheetData>
@@ -3555,28 +3555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.2595034784458</v>
+        <v>182.877078092489</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.6457287054754</v>
+        <v>250.2204862133061</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.069013544876</v>
+        <v>226.3397941958389</v>
       </c>
       <c r="AD2" t="n">
-        <v>142259.5034784458</v>
+        <v>182877.078092489</v>
       </c>
       <c r="AE2" t="n">
-        <v>194645.7287054755</v>
+        <v>250220.4862133061</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.461968637169564e-06</v>
+        <v>4.23577077318591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>176069.013544876</v>
+        <v>226339.7941958389</v>
       </c>
     </row>
     <row r="3">
@@ -3661,28 +3661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2080037829477</v>
+        <v>147.7352127615466</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.3691616279462</v>
+        <v>202.1378357178545</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.0637539217512</v>
+        <v>182.8460843792342</v>
       </c>
       <c r="AD3" t="n">
-        <v>117208.0037829477</v>
+        <v>147735.2127615466</v>
       </c>
       <c r="AE3" t="n">
-        <v>160369.1616279462</v>
+        <v>202137.8357178545</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.877888283398756e-06</v>
+        <v>4.951352708265655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>145063.7539217512</v>
+        <v>182846.0843792341</v>
       </c>
     </row>
     <row r="4">
@@ -3767,28 +3767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.36888310834</v>
+        <v>147.8960920869389</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.5892838184429</v>
+        <v>202.3579579083512</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.2628679593304</v>
+        <v>183.0451984168133</v>
       </c>
       <c r="AD4" t="n">
-        <v>117368.88310834</v>
+        <v>147896.0920869389</v>
       </c>
       <c r="AE4" t="n">
-        <v>160589.2838184429</v>
+        <v>202357.9579083512</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.877290044450725e-06</v>
+        <v>4.950323449398098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>145262.8679593304</v>
+        <v>183045.1984168133</v>
       </c>
     </row>
   </sheetData>
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.0138520779249</v>
+        <v>139.3985026635889</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.684585297137</v>
+        <v>190.7311811721424</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.9715301389992</v>
+        <v>172.528064934021</v>
       </c>
       <c r="AD2" t="n">
-        <v>105013.8520779249</v>
+        <v>139398.5026635889</v>
       </c>
       <c r="AE2" t="n">
-        <v>143684.585297137</v>
+        <v>190731.1811721424</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019804070516285e-06</v>
+        <v>6.053681565277903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.229166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>129971.5301389992</v>
+        <v>172528.0649340209</v>
       </c>
     </row>
   </sheetData>
@@ -4361,28 +4361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.7132799620764</v>
+        <v>153.9702869393357</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.9557704367846</v>
+        <v>210.6689392799604</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.9761319951483</v>
+        <v>190.5629913908545</v>
       </c>
       <c r="AD2" t="n">
-        <v>114713.2799620764</v>
+        <v>153970.2869393357</v>
       </c>
       <c r="AE2" t="n">
-        <v>156955.7704367846</v>
+        <v>210668.9392799604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86929359981347e-06</v>
+        <v>5.081732173581878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>141976.1319951483</v>
+        <v>190562.9913908545</v>
       </c>
     </row>
     <row r="3">
@@ -4467,28 +4467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.8727945946073</v>
+        <v>140.3156393361028</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.7010489267593</v>
+        <v>191.9860480286896</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.2229137309902</v>
+        <v>173.6631690589964</v>
       </c>
       <c r="AD3" t="n">
-        <v>110872.7945946073</v>
+        <v>140315.6393361028</v>
       </c>
       <c r="AE3" t="n">
-        <v>151701.0489267593</v>
+        <v>191986.0480286896</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.012120150380342e-06</v>
+        <v>5.334688607634002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>137222.9137309902</v>
+        <v>173663.1690589964</v>
       </c>
     </row>
   </sheetData>
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.1801624015729</v>
+        <v>173.0204391615572</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.5405325229884</v>
+        <v>236.734197983792</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.4552606471642</v>
+        <v>214.140618386821</v>
       </c>
       <c r="AD2" t="n">
-        <v>123180.1624015729</v>
+        <v>173020.4391615572</v>
       </c>
       <c r="AE2" t="n">
-        <v>168540.5325229884</v>
+        <v>236734.197983792</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658938473811564e-06</v>
+        <v>4.636956521935397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.960069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>152455.2606471642</v>
+        <v>214140.618386821</v>
       </c>
     </row>
     <row r="3">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.3183809116488</v>
+        <v>144.3250455016764</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.4154521342732</v>
+        <v>197.4718944269409</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.487380913087</v>
+        <v>178.6254539764342</v>
       </c>
       <c r="AD3" t="n">
-        <v>114318.3809116488</v>
+        <v>144325.0455016764</v>
       </c>
       <c r="AE3" t="n">
-        <v>156415.4521342732</v>
+        <v>197471.8944269409</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.93370268093108e-06</v>
+        <v>5.116121306959881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>141487.380913087</v>
+        <v>178625.4539764342</v>
       </c>
     </row>
   </sheetData>
@@ -5167,28 +5167,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.1842062626304</v>
+        <v>202.7859920273049</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.8569007848895</v>
+        <v>277.4607405782016</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.1147684995223</v>
+        <v>250.9802769160947</v>
       </c>
       <c r="AD2" t="n">
-        <v>151184.2062626304</v>
+        <v>202785.9920273049</v>
       </c>
       <c r="AE2" t="n">
-        <v>206856.9007848895</v>
+        <v>277460.7405782016</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.295119221349369e-06</v>
+        <v>3.901550564103105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.897569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>187114.7684995223</v>
+        <v>250980.2769160946</v>
       </c>
     </row>
     <row r="3">
@@ -5273,28 +5273,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.6190553862628</v>
+        <v>162.7981644810675</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.4045570334613</v>
+        <v>222.7476307910223</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.5231396604965</v>
+        <v>201.4889095366545</v>
       </c>
       <c r="AD3" t="n">
-        <v>121619.0553862628</v>
+        <v>162798.1644810674</v>
       </c>
       <c r="AE3" t="n">
-        <v>166404.5570334613</v>
+        <v>222747.6307910223</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779445185710266e-06</v>
+        <v>4.72487260414557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>150523.1396604965</v>
+        <v>201488.9095366544</v>
       </c>
     </row>
     <row r="4">
@@ -5379,28 +5379,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.5228882755422</v>
+        <v>161.7019973703468</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.9047328330943</v>
+        <v>221.2478065906553</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.1664565767956</v>
+        <v>200.1322264529535</v>
       </c>
       <c r="AD4" t="n">
-        <v>120522.8882755422</v>
+        <v>161701.9973703469</v>
       </c>
       <c r="AE4" t="n">
-        <v>164904.7328330943</v>
+        <v>221247.8065906553</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.808572975065563e-06</v>
+        <v>4.774387915565174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>149166.4565767956</v>
+        <v>200132.2264529535</v>
       </c>
     </row>
   </sheetData>
@@ -5676,28 +5676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4211982280221</v>
+        <v>146.6831914720453</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.3466666212007</v>
+        <v>200.6984137776559</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.1886689647679</v>
+        <v>181.5440388487663</v>
       </c>
       <c r="AD2" t="n">
-        <v>108421.1982280221</v>
+        <v>146683.1914720453</v>
       </c>
       <c r="AE2" t="n">
-        <v>148346.6666212007</v>
+        <v>200698.4137776559</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.035137344922362e-06</v>
+        <v>5.473070867621701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>134188.6689647679</v>
+        <v>181544.0388487663</v>
       </c>
     </row>
     <row r="3">
@@ -5782,28 +5782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.7321117619479</v>
+        <v>136.5566403539606</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.4038281179692</v>
+        <v>186.8428197859941</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.3358136450024</v>
+        <v>169.010803301216</v>
       </c>
       <c r="AD3" t="n">
-        <v>107732.1117619479</v>
+        <v>136556.6403539606</v>
       </c>
       <c r="AE3" t="n">
-        <v>147403.8281179692</v>
+        <v>186842.8197859941</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.066623703604937e-06</v>
+        <v>5.529848223256493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>133335.8136450024</v>
+        <v>169010.803301216</v>
       </c>
     </row>
   </sheetData>
@@ -6079,28 +6079,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.8175874099124</v>
+        <v>139.6538772072247</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.6795590860051</v>
+        <v>191.0805958890743</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.2532994118759</v>
+        <v>172.8441320007757</v>
       </c>
       <c r="AD2" t="n">
-        <v>102817.5874099124</v>
+        <v>139653.8772072247</v>
       </c>
       <c r="AE2" t="n">
-        <v>140679.5590860051</v>
+        <v>191080.5958890743</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.13008134807886e-06</v>
+        <v>5.839731287743235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.352430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>127253.2994118759</v>
+        <v>172844.1320007757</v>
       </c>
     </row>
   </sheetData>
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.566557859756</v>
+        <v>135.4338484457263</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.231357030182</v>
+        <v>185.3065663630658</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2296275171684</v>
+        <v>167.6211677488262</v>
       </c>
       <c r="AD2" t="n">
-        <v>99566.55785975601</v>
+        <v>135433.8484457263</v>
       </c>
       <c r="AE2" t="n">
-        <v>136231.357030182</v>
+        <v>185306.5663630658</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.119655697139963e-06</v>
+        <v>5.999213593688355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123229.6275171684</v>
+        <v>167621.1677488262</v>
       </c>
     </row>
   </sheetData>
@@ -10262,28 +10262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2832252267242</v>
+        <v>145.2082181226652</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.3166652894574</v>
+        <v>198.6802901698034</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.8296010934551</v>
+        <v>179.7185221255923</v>
       </c>
       <c r="AD2" t="n">
-        <v>103283.2252267242</v>
+        <v>145208.2181226652</v>
       </c>
       <c r="AE2" t="n">
-        <v>141316.6652894574</v>
+        <v>198680.2901698034</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.873704259035487e-06</v>
+        <v>5.927300454483818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>127829.6010934551</v>
+        <v>179718.5221255923</v>
       </c>
     </row>
   </sheetData>
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.7201289035513</v>
+        <v>158.3610327843004</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.4381179282073</v>
+        <v>216.6765514510737</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.9352519365144</v>
+        <v>195.9972454880952</v>
       </c>
       <c r="AD2" t="n">
-        <v>118720.1289035513</v>
+        <v>158361.0327843004</v>
       </c>
       <c r="AE2" t="n">
-        <v>162438.1179282073</v>
+        <v>216676.5514510737</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767661076080504e-06</v>
+        <v>4.862671332600027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.725694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>146935.2519365144</v>
+        <v>195997.2454880952</v>
       </c>
     </row>
     <row r="3">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.456099944974</v>
+        <v>142.1868673640868</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.8673971576322</v>
+        <v>194.5463447693303</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.1825087271981</v>
+        <v>175.9791146721102</v>
       </c>
       <c r="AD3" t="n">
-        <v>112456.099944974</v>
+        <v>142186.8673640868</v>
       </c>
       <c r="AE3" t="n">
-        <v>153867.3971576322</v>
+        <v>194546.3447693303</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.980321359263804e-06</v>
+        <v>5.236307061177928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>139182.5087271981</v>
+        <v>175979.1146721102</v>
       </c>
     </row>
   </sheetData>
@@ -10962,28 +10962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.3803344843586</v>
+        <v>197.5845274918641</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.2840314859959</v>
+        <v>270.3438673283952</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.169204621433</v>
+        <v>244.5426280606531</v>
       </c>
       <c r="AD2" t="n">
-        <v>146380.3344843586</v>
+        <v>197584.5274918641</v>
       </c>
       <c r="AE2" t="n">
-        <v>200284.0314859959</v>
+        <v>270343.8673283951</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384645573283027e-06</v>
+        <v>4.077478179698819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.637152777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>181169.204621433</v>
+        <v>244542.6280606531</v>
       </c>
     </row>
     <row r="3">
@@ -11068,28 +11068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.7343030735114</v>
+        <v>149.5081128993087</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.4575116528669</v>
+        <v>204.5635959011734</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.9527947513118</v>
+        <v>185.0403334152337</v>
       </c>
       <c r="AD3" t="n">
-        <v>118734.3030735114</v>
+        <v>149508.1128993087</v>
       </c>
       <c r="AE3" t="n">
-        <v>162457.5116528669</v>
+        <v>204563.5959011735</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.845812592782701e-06</v>
+        <v>4.866022389485873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146952.7947513118</v>
+        <v>185040.3334152337</v>
       </c>
     </row>
     <row r="4">
@@ -11174,28 +11174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.0432335867216</v>
+        <v>149.8170434125189</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.8802040100932</v>
+        <v>204.9862882583998</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.335145943217</v>
+        <v>185.4226846071389</v>
       </c>
       <c r="AD4" t="n">
-        <v>119043.2335867216</v>
+        <v>149817.0434125189</v>
       </c>
       <c r="AE4" t="n">
-        <v>162880.2040100932</v>
+        <v>204986.2882583998</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.844294269347958e-06</v>
+        <v>4.863426225618062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>147335.145943217</v>
+        <v>185422.6846071389</v>
       </c>
     </row>
   </sheetData>
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.1090715022448</v>
+        <v>159.71346248996</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.9702863506759</v>
+        <v>218.5270054393439</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.4166309516458</v>
+        <v>197.671094744854</v>
       </c>
       <c r="AD2" t="n">
-        <v>119109.0715022448</v>
+        <v>159713.46248996</v>
       </c>
       <c r="AE2" t="n">
-        <v>162970.2863506759</v>
+        <v>218527.0054393439</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.525117118214676e-06</v>
+        <v>5.412489029192666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.47743055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>147416.6309516458</v>
+        <v>197671.094744854</v>
       </c>
     </row>
   </sheetData>
@@ -11768,28 +11768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.5157892741599</v>
+        <v>141.8581729738848</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.003113796046</v>
+        <v>194.096610603683</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.3550973215208</v>
+        <v>175.5723025040264</v>
       </c>
       <c r="AD2" t="n">
-        <v>104515.7892741599</v>
+        <v>141858.1729738848</v>
       </c>
       <c r="AE2" t="n">
-        <v>143003.113796046</v>
+        <v>194096.610603683</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.113250844049188e-06</v>
+        <v>5.735954645016297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>129355.0973215208</v>
+        <v>175572.3025040264</v>
       </c>
     </row>
   </sheetData>
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.6173837813939</v>
+        <v>149.3018485444107</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.3515845841912</v>
+        <v>204.281375911061</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.9068017748003</v>
+        <v>184.7850481048793</v>
       </c>
       <c r="AD2" t="n">
-        <v>110617.3837813939</v>
+        <v>149301.8485444107</v>
       </c>
       <c r="AE2" t="n">
-        <v>151351.5845841912</v>
+        <v>204281.375911061</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984161396648402e-06</v>
+        <v>5.330986556144686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136906.8017748003</v>
+        <v>184785.0481048793</v>
       </c>
     </row>
     <row r="3">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.8321803651571</v>
+        <v>138.9735625964148</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.2772346293665</v>
+        <v>190.1497594252024</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.9349862718041</v>
+        <v>172.0021332625782</v>
       </c>
       <c r="AD3" t="n">
-        <v>109832.1803651571</v>
+        <v>138973.5625964148</v>
       </c>
       <c r="AE3" t="n">
-        <v>150277.2346293665</v>
+        <v>190149.7594252024</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.02159296557153e-06</v>
+        <v>5.397855322334315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>135934.9862718041</v>
+        <v>172002.1332625782</v>
       </c>
     </row>
   </sheetData>
